--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_24_8.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_24_8.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_0</t>
+          <t>model_24_8_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999536126422626</v>
+        <v>0.9999943258525607</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9990390567364615</v>
+        <v>0.9991729653723733</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9996057594791079</v>
+        <v>0.9999885883931785</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9998832114491706</v>
+        <v>0.9999789170729813</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9998518386106257</v>
+        <v>0.9999837319851416</v>
       </c>
       <c r="G2" t="n">
-        <v>4.330056227824107e-05</v>
+        <v>5.296567568352443e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008969983559788759</v>
+        <v>0.0007720005222650022</v>
       </c>
       <c r="I2" t="n">
-        <v>0.000154547823138823</v>
+        <v>9.814103804122444e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0001160806907646456</v>
+        <v>2.320951617395268e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0001353142569517343</v>
+        <v>1.651180998903756e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003775272601828665</v>
+        <v>0.0001481599768079906</v>
       </c>
       <c r="M2" t="n">
-        <v>0.006580316274940063</v>
+        <v>0.002301427289390747</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000065488034453</v>
+        <v>1.000008010561091</v>
       </c>
       <c r="O2" t="n">
-        <v>0.006860453961896801</v>
+        <v>0.002399403813711367</v>
       </c>
       <c r="P2" t="n">
-        <v>102.0946898747989</v>
+        <v>106.2969031516419</v>
       </c>
       <c r="Q2" t="n">
-        <v>152.0685986943952</v>
+        <v>156.2708119712381</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_22</t>
+          <t>model_24_8_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.9999944310181706</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9991721773801799</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9996057594791079</v>
+        <v>0.9999888126922378</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9998832105933153</v>
+        <v>0.9999793151037553</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9998518381449093</v>
+        <v>0.9999840428656668</v>
       </c>
       <c r="G3" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>5.198400087614683e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0007727360783886455</v>
       </c>
       <c r="I3" t="n">
-        <v>0.000154547823138823</v>
+        <v>9.621204216353312e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0001160815414325653</v>
+        <v>2.277133689846403e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0001353146822856941</v>
+        <v>1.619627055740867e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001478230219369028</v>
       </c>
       <c r="M3" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.002280000019213746</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000065488240254</v>
+        <v>1.000007862091994</v>
       </c>
       <c r="O3" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.002377064340282367</v>
       </c>
       <c r="P3" t="n">
-        <v>102.0946835896514</v>
+        <v>106.3343193103548</v>
       </c>
       <c r="Q3" t="n">
-        <v>152.0685924092476</v>
+        <v>156.3082281299511</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_21</t>
+          <t>model_24_8_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.9999945445745632</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9991713381072225</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9996057594791079</v>
+        <v>0.9999890386381052</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9998832105933153</v>
+        <v>0.9999797638195628</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9998518381449093</v>
+        <v>0.999984381930712</v>
       </c>
       <c r="G4" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>5.092400179817276e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0007735195028546751</v>
       </c>
       <c r="I4" t="n">
-        <v>0.000154547823138823</v>
+        <v>9.426888356092094e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0001160815414325653</v>
+        <v>2.227736009989602e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0001353146822856941</v>
+        <v>1.585212422799406e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001474546986760548</v>
       </c>
       <c r="M4" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.002256634702342689</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000065488240254</v>
+        <v>1.000007701777087</v>
       </c>
       <c r="O4" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.002352704313499235</v>
       </c>
       <c r="P4" t="n">
-        <v>102.0946835896514</v>
+        <v>106.375522580896</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.0685924092476</v>
+        <v>156.3494314004923</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_20</t>
+          <t>model_24_8_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.9999946706917607</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9991703616584123</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9996057594791079</v>
+        <v>0.9999892990299197</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9998832105933153</v>
+        <v>0.9999802520253681</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9998518381449093</v>
+        <v>0.9999847570046968</v>
       </c>
       <c r="G5" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>4.974675311756743e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0007744309749577964</v>
       </c>
       <c r="I5" t="n">
-        <v>0.000154547823138823</v>
+        <v>9.202948613246615e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0001160815414325653</v>
+        <v>2.173991003305466e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0001353146822856941</v>
+        <v>1.547142932315064e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001470096025525771</v>
       </c>
       <c r="M5" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.002230398016443869</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000065488240254</v>
+        <v>1.000007523729279</v>
       </c>
       <c r="O5" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.002325350677564275</v>
       </c>
       <c r="P5" t="n">
-        <v>102.0946835896514</v>
+        <v>106.422300906904</v>
       </c>
       <c r="Q5" t="n">
-        <v>152.0685924092476</v>
+        <v>156.3962097265002</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_19</t>
+          <t>model_24_8_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.999994808218717</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9991692945310756</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9996057594791079</v>
+        <v>0.9999895805046709</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9998832105933153</v>
+        <v>0.99998079101217</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9998518381449093</v>
+        <v>0.9999851685494824</v>
       </c>
       <c r="G6" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>4.846299934829647e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0007754270914850869</v>
       </c>
       <c r="I6" t="n">
-        <v>0.000154547823138823</v>
+        <v>8.960877319525247e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0001160815414325653</v>
+        <v>2.114655680066367e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0001353146822856941</v>
+        <v>1.505371706009446e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001465220828359719</v>
       </c>
       <c r="M6" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.00220143133775043</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000065488240254</v>
+        <v>1.000007329573576</v>
       </c>
       <c r="O6" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.002295150827389566</v>
       </c>
       <c r="P6" t="n">
-        <v>102.0946835896514</v>
+        <v>106.4745900884127</v>
       </c>
       <c r="Q6" t="n">
-        <v>152.0685924092476</v>
+        <v>156.4484989080089</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_18</t>
+          <t>model_24_8_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.9999949571388708</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9991681059025341</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9996057594791079</v>
+        <v>0.9999898862387845</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9998832105933153</v>
+        <v>0.9999813836004119</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9998518381449093</v>
+        <v>0.9999856194403275</v>
       </c>
       <c r="G7" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>4.707289508070814e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0007765366240537835</v>
       </c>
       <c r="I7" t="n">
-        <v>0.000154547823138823</v>
+        <v>8.697942714989833e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0001160815414325653</v>
+        <v>2.049419546718295e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0001353146822856941</v>
+        <v>1.45960690910864e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001460012533763858</v>
       </c>
       <c r="M7" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.002169628887176517</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000065488240254</v>
+        <v>1.000007119333359</v>
       </c>
       <c r="O7" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.002261994480654574</v>
       </c>
       <c r="P7" t="n">
-        <v>102.0946835896514</v>
+        <v>106.5327965831585</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.0685924092476</v>
+        <v>156.5067054027548</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_17</t>
+          <t>model_24_8_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.9999951129654288</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9991668026671476</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9996057594791079</v>
+        <v>0.9999902243854479</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9998832105933153</v>
+        <v>0.9999819912572686</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9998518381449093</v>
+        <v>0.9999860922347681</v>
       </c>
       <c r="G8" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>4.561832256252955e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0007777531370816585</v>
       </c>
       <c r="I8" t="n">
-        <v>0.000154547823138823</v>
+        <v>8.407132971128436e-06</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0001160815414325653</v>
+        <v>1.982524558024089e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0001353146822856941</v>
+        <v>1.411618927568466e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001454850668363325</v>
       </c>
       <c r="M8" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.00213584462362152</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000065488240254</v>
+        <v>1.000006899342924</v>
       </c>
       <c r="O8" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.002226771951056974</v>
       </c>
       <c r="P8" t="n">
-        <v>102.0946835896514</v>
+        <v>106.5955724091209</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.0685924092476</v>
+        <v>156.5694812287171</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_16</t>
+          <t>model_24_8_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.9999952792714843</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9991653621869784</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9996057594791079</v>
+        <v>0.9999905930167525</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9998832105933153</v>
+        <v>0.9999826416377776</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9998518381449093</v>
+        <v>0.9999866011135486</v>
       </c>
       <c r="G9" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>4.406592853358705e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0007790977620899317</v>
       </c>
       <c r="I9" t="n">
-        <v>0.000154547823138823</v>
+        <v>8.090106110248177e-06</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0001160815414325653</v>
+        <v>1.910926259884623e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0001353146822856941</v>
+        <v>1.35996843545472e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001449139360353505</v>
       </c>
       <c r="M9" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.002099188617861365</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000065488240254</v>
+        <v>1.000006664557904</v>
       </c>
       <c r="O9" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.002188555423243215</v>
       </c>
       <c r="P9" t="n">
-        <v>102.0946835896514</v>
+        <v>106.6648175254432</v>
       </c>
       <c r="Q9" t="n">
-        <v>152.0685924092476</v>
+        <v>156.6387263450394</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_15</t>
+          <t>model_24_8_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.9999954635687325</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9991637064277442</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9996057594791079</v>
+        <v>0.9999909990948719</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9998832105933153</v>
+        <v>0.9999833722107146</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9998518381449093</v>
+        <v>0.9999871693458108</v>
       </c>
       <c r="G10" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>4.234559461921515e-06</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0007806433406555675</v>
       </c>
       <c r="I10" t="n">
-        <v>0.000154547823138823</v>
+        <v>7.740874588521195e-06</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0001160815414325653</v>
+        <v>1.830499835305339e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0001353146822856941</v>
+        <v>1.302293647078729e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.000144237696997099</v>
       </c>
       <c r="M10" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.00205780452471111</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000065488240254</v>
+        <v>1.000006404373554</v>
       </c>
       <c r="O10" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.002145409523570671</v>
       </c>
       <c r="P10" t="n">
-        <v>102.0946835896514</v>
+        <v>106.7444625168601</v>
       </c>
       <c r="Q10" t="n">
-        <v>152.0685924092476</v>
+        <v>156.7183713364564</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_14</t>
+          <t>model_24_8_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.9999956561000946</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9991619276088421</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9996057594791079</v>
+        <v>0.9999914273301722</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9998832105933153</v>
+        <v>0.9999841462985578</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9998518381449093</v>
+        <v>0.9999877705635339</v>
       </c>
       <c r="G11" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>4.054839886519379e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0007823037900195824</v>
       </c>
       <c r="I11" t="n">
-        <v>0.000154547823138823</v>
+        <v>7.372587654382749e-06</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0001160815414325653</v>
+        <v>1.745282994680524e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0001353146822856941</v>
+        <v>1.2412708800594e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001434850250393374</v>
       </c>
       <c r="M11" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.002013663300186846</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000065488240254</v>
+        <v>1.000006132564572</v>
       </c>
       <c r="O11" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.002099389115733478</v>
       </c>
       <c r="P11" t="n">
-        <v>102.0946835896514</v>
+        <v>106.8311987132435</v>
       </c>
       <c r="Q11" t="n">
-        <v>152.0685924092476</v>
+        <v>156.8051075328397</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_13</t>
+          <t>model_24_8_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.9999958590986485</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9991599679492341</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9996057594791079</v>
+        <v>0.9999918804210132</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9998832105933153</v>
+        <v>0.9999849752182913</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9998518381449093</v>
+        <v>0.9999884120471728</v>
       </c>
       <c r="G12" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>3.865349647039282e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0007841330462444885</v>
       </c>
       <c r="I12" t="n">
-        <v>0.000154547823138823</v>
+        <v>6.982924689702498e-06</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0001160815414325653</v>
+        <v>1.6540298876336e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0001353146822856941</v>
+        <v>1.176161178301925e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001426853750829773</v>
       </c>
       <c r="M12" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.001966049248375859</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000065488240254</v>
+        <v>1.000005845978378</v>
       </c>
       <c r="O12" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.002049748035162223</v>
       </c>
       <c r="P12" t="n">
-        <v>102.0946835896514</v>
+        <v>106.9269168301293</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.0685924092476</v>
+        <v>156.9008256497255</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_23</t>
+          <t>model_24_8_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.9999960833284289</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9991576787299719</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9996057594791079</v>
+        <v>0.9999923861943865</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9998832105933153</v>
+        <v>0.9999859017634312</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9998518381449093</v>
+        <v>0.9999891287930249</v>
       </c>
       <c r="G13" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>3.656040989553071e-06</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0007862699319407241</v>
       </c>
       <c r="I13" t="n">
-        <v>0.000154547823138823</v>
+        <v>6.547954184269934e-06</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0001160815414325653</v>
+        <v>1.552029513628856e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0001353146822856941</v>
+        <v>1.103412466027925e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001416767063642452</v>
       </c>
       <c r="M13" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.001912077663054791</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000065488240254</v>
+        <v>1.000005529418688</v>
       </c>
       <c r="O13" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.001993478767717453</v>
       </c>
       <c r="P13" t="n">
-        <v>102.0946835896514</v>
+        <v>107.0382593857014</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.0685924092476</v>
+        <v>157.0121682052976</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.9999963177076909</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9991551524859463</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9996057594791079</v>
+        <v>0.9999929094524527</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9998832105933153</v>
+        <v>0.9999868999652184</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9998518381449093</v>
+        <v>0.9999898918062669</v>
       </c>
       <c r="G14" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>3.437258236514987e-06</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0007886280698492778</v>
       </c>
       <c r="I14" t="n">
-        <v>0.000154547823138823</v>
+        <v>6.097946656070749e-06</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0001160815414325653</v>
+        <v>1.44214068982626e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0001353146822856941</v>
+        <v>1.025967677716668e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001405912847924482</v>
       </c>
       <c r="M14" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.001853984421864161</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000065488240254</v>
+        <v>1.000005198530319</v>
       </c>
       <c r="O14" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.00193291237697975</v>
       </c>
       <c r="P14" t="n">
-        <v>102.0946835896514</v>
+        <v>107.1616728572812</v>
       </c>
       <c r="Q14" t="n">
-        <v>152.0685924092476</v>
+        <v>157.1355816768774</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_10</t>
+          <t>model_24_8_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.9999965525799361</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9991523984537509</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9996057594791079</v>
+        <v>0.9999934674356659</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9998832105933153</v>
+        <v>0.9999879060465777</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9998518381449093</v>
+        <v>0.9999906738041838</v>
       </c>
       <c r="G15" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>3.218015305327052e-06</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.00079119883801563</v>
       </c>
       <c r="I15" t="n">
-        <v>0.000154547823138823</v>
+        <v>5.618075130416397e-06</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0001160815414325653</v>
+        <v>1.331384429270892e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0001353146822856941</v>
+        <v>9.465959711562657e-06</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001394583420343765</v>
       </c>
       <c r="M15" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.001793882745701918</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000065488240254</v>
+        <v>1.000004866945972</v>
       </c>
       <c r="O15" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.001870252048035659</v>
       </c>
       <c r="P15" t="n">
-        <v>102.0946835896514</v>
+        <v>107.2934915064882</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.0685924092476</v>
+        <v>157.2674003260844</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_9</t>
+          <t>model_24_8_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.9999968004999722</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9991492480290985</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9996057594791079</v>
+        <v>0.9999940644568505</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9998832105933153</v>
+        <v>0.9999890018765244</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9998518381449093</v>
+        <v>0.999991520789301</v>
       </c>
       <c r="G16" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>2.986592834156624e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0007941396211409688</v>
       </c>
       <c r="I16" t="n">
-        <v>0.000154547823138823</v>
+        <v>5.104630532232115e-06</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0001160815414325653</v>
+        <v>1.210748035432088e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0001353146822856941</v>
+        <v>8.606281536933222e-06</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001381429538081593</v>
       </c>
       <c r="M16" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.001728176158311595</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000065488240254</v>
+        <v>1.000004516941216</v>
       </c>
       <c r="O16" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.001801748195188744</v>
       </c>
       <c r="P16" t="n">
-        <v>102.0946835896514</v>
+        <v>107.4427546813152</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.0685924092476</v>
+        <v>157.4166635009114</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_8</t>
+          <t>model_24_8_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.9999970404086623</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9991458504820927</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9996057594791079</v>
+        <v>0.9999946793361632</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9998832105933153</v>
+        <v>0.9999900975687023</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9998518381449093</v>
+        <v>0.9999923757109256</v>
       </c>
       <c r="G17" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>2.762648602633163e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0007973110821358831</v>
       </c>
       <c r="I17" t="n">
-        <v>0.000154547823138823</v>
+        <v>4.575827753108465e-06</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0001160815414325653</v>
+        <v>1.09012680811578e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0001353146822856941</v>
+        <v>7.73854791713313e-06</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001367785085742574</v>
       </c>
       <c r="M17" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.001662121717153459</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000065488240254</v>
+        <v>1.000004178246594</v>
       </c>
       <c r="O17" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.001732881679718962</v>
       </c>
       <c r="P17" t="n">
-        <v>102.0946835896514</v>
+        <v>107.5986413995176</v>
       </c>
       <c r="Q17" t="n">
-        <v>152.0685924092476</v>
+        <v>157.5725502191138</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_7</t>
+          <t>model_24_8_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.9999972755909404</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9991420596169068</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9996057594791079</v>
+        <v>0.9999953233864453</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9998832105933153</v>
+        <v>0.9999912113400222</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9998518381449093</v>
+        <v>0.9999932525727034</v>
       </c>
       <c r="G18" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>2.543116269344967e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0008008496883870877</v>
       </c>
       <c r="I18" t="n">
-        <v>0.000154547823138823</v>
+        <v>4.021937628590513e-06</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0001160815414325653</v>
+        <v>9.675153061992905e-06</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0001353146822856941</v>
+        <v>6.848545345291709e-06</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001352664171385706</v>
       </c>
       <c r="M18" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.001594715106012659</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000065488240254</v>
+        <v>1.000003846224555</v>
       </c>
       <c r="O18" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.001662605429590978</v>
       </c>
       <c r="P18" t="n">
-        <v>102.0946835896514</v>
+        <v>107.7642407024768</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.0685924092476</v>
+        <v>157.738149522073</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_6</t>
+          <t>model_24_8_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.9999975119339652</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9991378297529653</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9996057594791079</v>
+        <v>0.9999959589746164</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9998832105933153</v>
+        <v>0.9999924274031219</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9998518381449093</v>
+        <v>0.9999941813229837</v>
       </c>
       <c r="G19" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>2.322500429925284e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0008047980807069712</v>
       </c>
       <c r="I19" t="n">
-        <v>0.000154547823138823</v>
+        <v>3.475325009942784e-06</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0001160815414325653</v>
+        <v>8.336428313021046e-06</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0001353146822856941</v>
+        <v>5.905876661481915e-06</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001333571634418896</v>
       </c>
       <c r="M19" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.001523975206466721</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000065488240254</v>
+        <v>1.000003512563814</v>
       </c>
       <c r="O19" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.001588853986069589</v>
       </c>
       <c r="P19" t="n">
-        <v>102.0946835896514</v>
+        <v>107.9457323622906</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.0685924092476</v>
+        <v>157.9196411818868</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_5</t>
+          <t>model_24_8_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.9999977167064447</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9991331293480528</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9996057594791079</v>
+        <v>0.9999966368626002</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9998832105933153</v>
+        <v>0.9999935470717082</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9998518381449093</v>
+        <v>0.9999950757184468</v>
       </c>
       <c r="G20" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>2.131354308886043e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0008091857023689118</v>
       </c>
       <c r="I20" t="n">
-        <v>0.000154547823138823</v>
+        <v>2.892334100291694e-06</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0001160815414325653</v>
+        <v>7.103821183161592e-06</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0001353146822856941</v>
+        <v>4.998077641726643e-06</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001314330231898849</v>
       </c>
       <c r="M20" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.001459915856782864</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000065488240254</v>
+        <v>1.000003223473255</v>
       </c>
       <c r="O20" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.001522067497248555</v>
       </c>
       <c r="P20" t="n">
-        <v>102.0946835896514</v>
+        <v>108.1175059090528</v>
       </c>
       <c r="Q20" t="n">
-        <v>152.0685924092476</v>
+        <v>158.0914147286491</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_4</t>
+          <t>model_24_8_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.9999978908618142</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.999127892545935</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9996057594791079</v>
+        <v>0.9999973120045321</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9998832105933153</v>
+        <v>0.9999946375906535</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9998518381449093</v>
+        <v>0.9999959531424785</v>
       </c>
       <c r="G21" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>1.968787915974006e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0008140740272767608</v>
       </c>
       <c r="I21" t="n">
-        <v>0.000154547823138823</v>
+        <v>2.311704824737833e-06</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0001160815414325653</v>
+        <v>5.903303955254208e-06</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0001353146822856941</v>
+        <v>4.107504389996021e-06</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001293462978068972</v>
       </c>
       <c r="M21" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.00140313503126891</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000065488240254</v>
+        <v>1.00000297760685</v>
       </c>
       <c r="O21" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.001462869394439961</v>
       </c>
       <c r="P21" t="n">
-        <v>102.0946835896514</v>
+        <v>108.276184951301</v>
       </c>
       <c r="Q21" t="n">
-        <v>152.0685924092476</v>
+        <v>158.2500937708972</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_3</t>
+          <t>model_24_8_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.9999980184977935</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9991219695030716</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9996057594791079</v>
+        <v>0.9999979900258724</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9998832105933153</v>
+        <v>0.999995645847691</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9998518381449093</v>
+        <v>0.9999967871751965</v>
       </c>
       <c r="G22" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>1.849645331953585e-06</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0008196029277981596</v>
       </c>
       <c r="I22" t="n">
-        <v>0.000154547823138823</v>
+        <v>1.728599227151263e-06</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0001160815414325653</v>
+        <v>4.79334621566795e-06</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0001353146822856941</v>
+        <v>3.260972721409607e-06</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001271264124043267</v>
       </c>
       <c r="M22" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.00136001666605729</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000065488240254</v>
+        <v>1.00000279741488</v>
       </c>
       <c r="O22" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.00141791539115396</v>
       </c>
       <c r="P22" t="n">
-        <v>102.0946835896514</v>
+        <v>108.4010332994215</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.0685924092476</v>
+        <v>158.3749421190177</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_2</t>
+          <t>model_24_8_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.9999980847203326</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9991153414350663</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9996057594791079</v>
+        <v>0.999998627235467</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9998832105933153</v>
+        <v>0.9999965620885856</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9998518381449093</v>
+        <v>0.9999975540167771</v>
       </c>
       <c r="G23" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>1.787829498434826e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0008257899383426144</v>
       </c>
       <c r="I23" t="n">
-        <v>0.000154547823138823</v>
+        <v>1.180592166924774e-06</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0001160815414325653</v>
+        <v>3.784686087794252e-06</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0001353146822856941</v>
+        <v>2.482639127359513e-06</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001245702178581309</v>
       </c>
       <c r="M23" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.001337097415461875</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000065488240254</v>
+        <v>1.000002703924236</v>
       </c>
       <c r="O23" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.00139402042061131</v>
       </c>
       <c r="P23" t="n">
-        <v>102.0946835896514</v>
+        <v>108.4690164891542</v>
       </c>
       <c r="Q23" t="n">
-        <v>152.0685924092476</v>
+        <v>158.4429253087504</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_1</t>
+          <t>model_24_8_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.9999980616390036</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9991080262954626</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9996057594791079</v>
+        <v>0.9999991936832856</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9998832105933153</v>
+        <v>0.9999973137256631</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9998518381449093</v>
+        <v>0.9999982016139093</v>
       </c>
       <c r="G24" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>1.809374905936035e-06</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0008326183000651451</v>
       </c>
       <c r="I24" t="n">
-        <v>0.000154547823138823</v>
+        <v>6.934409901827493e-07</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0001160815414325653</v>
+        <v>2.957233007226477e-06</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0001353146822856941</v>
+        <v>1.825336998704613e-06</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001219259395118944</v>
       </c>
       <c r="M24" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.001345130070266825</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000065488240254</v>
+        <v>1.000002736509642</v>
       </c>
       <c r="O24" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.001402395042161195</v>
       </c>
       <c r="P24" t="n">
-        <v>102.0946835896514</v>
+        <v>108.4450582563441</v>
       </c>
       <c r="Q24" t="n">
-        <v>152.0685924092476</v>
+        <v>158.4189670759403</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_11</t>
+          <t>model_24_8_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.9999979268881681</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9990998717669256</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9996057594791079</v>
+        <v>0.9999996393402691</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9998832105933153</v>
+        <v>0.9999978804822531</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9998518381449093</v>
+        <v>0.9999986977752872</v>
       </c>
       <c r="G25" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>1.935158895909528e-06</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.00084023019451203</v>
       </c>
       <c r="I25" t="n">
-        <v>0.000154547823138823</v>
+        <v>3.101712223085611e-07</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0001160815414325653</v>
+        <v>2.333308908327161e-06</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0001353146822856941</v>
+        <v>1.321740065317861e-06</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001189577992361578</v>
       </c>
       <c r="M25" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.001391099887107151</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000065488240254</v>
+        <v>1.000002926746116</v>
       </c>
       <c r="O25" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.001450321889275052</v>
       </c>
       <c r="P25" t="n">
-        <v>102.0946835896514</v>
+        <v>108.3106422362096</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.0685924092476</v>
+        <v>158.2845510558059</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_24</t>
+          <t>model_24_8_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999536124964866</v>
+        <v>0.9999976461140606</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9990390558478673</v>
+        <v>0.9990907710314929</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9996057594791079</v>
+        <v>0.9999999180963298</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9998832105933153</v>
+        <v>0.9999981926341865</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9998518381449093</v>
+        <v>0.9999989851541865</v>
       </c>
       <c r="G26" t="n">
-        <v>4.330069835366613e-05</v>
+        <v>2.197249200741952e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0008969991854425926</v>
+        <v>0.0008487253315623412</v>
       </c>
       <c r="I26" t="n">
-        <v>0.000154547823138823</v>
+        <v>7.043803151749853e-08</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0001160815414325653</v>
+        <v>1.989670886000173e-06</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0001353146822856941</v>
+        <v>1.030054458758836e-06</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0003775236309584257</v>
+        <v>0.0001172015704573567</v>
       </c>
       <c r="M26" t="n">
-        <v>0.006580326614512849</v>
+        <v>0.001482312113133382</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000065488240254</v>
+        <v>1.000003323133091</v>
       </c>
       <c r="O26" t="n">
-        <v>0.006860464741646606</v>
+        <v>0.001545417208598557</v>
       </c>
       <c r="P26" t="n">
-        <v>102.0946835896514</v>
+        <v>108.0566086865111</v>
       </c>
       <c r="Q26" t="n">
-        <v>152.0685924092476</v>
+        <v>158.0305175061073</v>
       </c>
     </row>
   </sheetData>
